--- a/biology/Botanique/Stamppot/Stamppot.xlsx
+++ b/biology/Botanique/Stamppot/Stamppot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  stamppot   est un plat traditionnel néerlandais fait d'un mélange de purée de pommes de terre et d'un ou plusieurs autres légumes, et parfois aussi de bacon. Ces légumes d'accompagnement sont traditionnellement la choucroute, la scarole, le chou frisé, ou un mélange de carottes et d'oignons (cette dernière combinaison est connue sous le nom de hutspot). On peut aussi avoir des haricots comme dans le Blote billetjes in het gras (Fesses nues dans l'herbe, nom dû au mélange de haricots blancs et verts). Il est généralement servi avec des saucisses ou des viandes en sauce. Le stamppot peut être acheté déjà préparé dans le commerce. Il peut également être commandé dans les brasseries et restaurants.
@@ -513,7 +525,9 @@
           <t>Préparation du stamppot</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux manières de préparer le stamppot, la première étant la plus récente :
 le stamppot se prépare en faisant bouillir les légumes et les pommes de terre séparément. Ensuite, les pommes de terre sont ajoutées aux légumes dans un même récipient et l'ensemble est complètement écrasé. Certaines personnes ajoutent à ce mélange une compote de pommes soit pour en modifier le goût, soit pour le rendre plus moelleux. Une rookworst (saucisse fumée) est la viande préférée pour accompagner ce plat. Les Néerlandais font un petit creux au milieu du mélange de légumes pour y ajouter la sauce ;
@@ -547,7 +561,9 @@
           <t>Plats similaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bubble and squeak en Angleterre
 Colcannon en Irlande
